--- a/doc/report/metrics_tables.xlsx
+++ b/doc/report/metrics_tables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filippo\Dropbox\AMERICA\STANFORD\Year 3\FALL 2016\CS229 Machine Learning\Project\report_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filippo\Documents\GitHub\baboon-pairings-ml\doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
   <si>
     <t>Normalized Confusion Matrix for SVM</t>
   </si>
@@ -88,14 +88,90 @@
   </si>
   <si>
     <t>Gaussian SVM Feature Selection</t>
+  </si>
+  <si>
+    <t>female_id</t>
+  </si>
+  <si>
+    <t>male_id</t>
+  </si>
+  <si>
+    <t>cycle_id</t>
+  </si>
+  <si>
+    <t>consort</t>
+  </si>
+  <si>
+    <t>conceptive</t>
+  </si>
+  <si>
+    <t>female_hybridscore</t>
+  </si>
+  <si>
+    <t>male_hybridscore</t>
+  </si>
+  <si>
+    <t>female_gendiv</t>
+  </si>
+  <si>
+    <t>male_gendiv</t>
+  </si>
+  <si>
+    <t>gen_distance</t>
+  </si>
+  <si>
+    <t>female_age</t>
+  </si>
+  <si>
+    <t>male_rank</t>
+  </si>
+  <si>
+    <t>female_rank</t>
+  </si>
+  <si>
+    <t>males_present</t>
+  </si>
+  <si>
+    <t>females_present</t>
+  </si>
+  <si>
+    <t>male_rank_transform</t>
+  </si>
+  <si>
+    <t>gen_distance_transform</t>
+  </si>
+  <si>
+    <t>rank_interact</t>
+  </si>
+  <si>
+    <t>assort_index</t>
+  </si>
+  <si>
+    <t>female_age_transform</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Feature Type</t>
+  </si>
+  <si>
+    <t>Feature Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -114,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -355,11 +431,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -427,27 +518,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -462,6 +532,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -846,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:W40"/>
+  <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -865,38 +974,48 @@
     <col min="11" max="11" width="15.265625"/>
     <col min="12" max="12" width="19.59765625"/>
     <col min="13" max="15" width="8.53125"/>
-    <col min="16" max="16" width="7.6640625"/>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
     <col min="17" max="17" width="9.06640625" customWidth="1"/>
     <col min="18" max="18" width="7.86328125"/>
     <col min="19" max="19" width="6.19921875"/>
-    <col min="20" max="20" width="6.06640625"/>
+    <col min="20" max="20" width="9.73046875" customWidth="1"/>
     <col min="21" max="21" width="5.46484375"/>
-    <col min="22" max="1025" width="8.53125"/>
+    <col min="22" max="22" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.9296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="1025" width="8.53125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="J1" s="25" t="s">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="J1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
       <c r="P1" s="15"/>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="28"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="35"/>
       <c r="U1" s="15"/>
-    </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B2" s="29" t="s">
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+    </row>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="7"/>
       <c r="J2" s="2"/>
       <c r="K2" s="3" t="s">
@@ -905,7 +1024,12 @@
       <c r="L2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="1"/>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="Q2" s="17" t="s">
         <v>5</v>
       </c>
@@ -919,8 +1043,26 @@
         <v>8</v>
       </c>
       <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="V2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B3" s="17"/>
       <c r="C3" s="14" t="s">
         <v>9</v>
@@ -944,8 +1086,15 @@
       <c r="L3" s="8">
         <v>0.31</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="32">
+      <c r="O3" t="str">
+        <f>VLOOKUP(Q3,$A$51:$C$66,2,0)</f>
+        <v>female_hybridscore</v>
+      </c>
+      <c r="P3" s="1" t="str">
+        <f>VLOOKUP(Q3,$A$51:$C$66,3,0)</f>
+        <v>BG</v>
+      </c>
+      <c r="Q3" s="25">
         <v>1</v>
       </c>
       <c r="R3" s="16">
@@ -954,12 +1103,32 @@
       <c r="S3" s="16">
         <v>0.25185000000000002</v>
       </c>
-      <c r="T3" s="33">
+      <c r="T3" s="26">
         <v>0.55393000000000003</v>
       </c>
       <c r="U3" s="9"/>
-    </row>
-    <row r="4" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="V3" t="str">
+        <f>VLOOKUP(X3,$A$51:$C$66,2,0)</f>
+        <v>female_hybridscore</v>
+      </c>
+      <c r="W3" s="1" t="str">
+        <f>VLOOKUP(X3,$A$51:$C$66,3,0)</f>
+        <v>BG</v>
+      </c>
+      <c r="X3" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="44">
+        <v>0.48592000000000002</v>
+      </c>
+      <c r="Z3" s="44">
+        <v>0.25185000000000002</v>
+      </c>
+      <c r="AA3" s="45">
+        <v>0.55393000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
         <v>14</v>
       </c>
@@ -980,13 +1149,20 @@
         <v>15</v>
       </c>
       <c r="K4" s="11">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="L4" s="12">
-        <v>0.65</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="32">
+        <v>0.64</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:O13" si="0">VLOOKUP(Q4,$A$51:$C$66,2,0)</f>
+        <v>female_gendiv</v>
+      </c>
+      <c r="P4" s="1" t="str">
+        <f>VLOOKUP(Q4,$A$51:$C$66,3,0)</f>
+        <v>BG</v>
+      </c>
+      <c r="Q4" s="25">
         <v>3</v>
       </c>
       <c r="R4" s="16">
@@ -995,12 +1171,32 @@
       <c r="S4" s="16">
         <v>0.26302999999999999</v>
       </c>
-      <c r="T4" s="33">
+      <c r="T4" s="26">
         <v>0.57064999999999999</v>
       </c>
       <c r="U4" s="9"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="V4" t="str">
+        <f>VLOOKUP(X4,$A$51:$C$66,2,0)</f>
+        <v>male_hybridscore</v>
+      </c>
+      <c r="W4" s="1" t="str">
+        <f>VLOOKUP(X4,$A$51:$C$66,3,0)</f>
+        <v>BG</v>
+      </c>
+      <c r="X4" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>0.45762000000000003</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>0.24945999999999999</v>
+      </c>
+      <c r="AA4" s="41">
+        <v>0.55181999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B5" s="17" t="s">
         <v>16</v>
       </c>
@@ -1020,8 +1216,15 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="32">
+      <c r="O5" t="str">
+        <f t="shared" si="0"/>
+        <v>male_gendiv</v>
+      </c>
+      <c r="P5" s="1" t="str">
+        <f t="shared" ref="P5:P13" si="1">VLOOKUP(Q5,$A$51:$C$66,3,0)</f>
+        <v>BG</v>
+      </c>
+      <c r="Q5" s="25">
         <v>4</v>
       </c>
       <c r="R5" s="16">
@@ -1030,12 +1233,32 @@
       <c r="S5" s="16">
         <v>0.28431000000000001</v>
       </c>
-      <c r="T5" s="33">
+      <c r="T5" s="26">
         <v>0.59713000000000005</v>
       </c>
       <c r="U5" s="9"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="V5" t="str">
+        <f t="shared" ref="V5:V11" si="2">VLOOKUP(X5,$A$51:$C$66,2,0)</f>
+        <v>female_gendiv</v>
+      </c>
+      <c r="W5" s="1" t="str">
+        <f t="shared" ref="W5:W11" si="3">VLOOKUP(X5,$A$51:$C$66,3,0)</f>
+        <v>BG</v>
+      </c>
+      <c r="X5" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>0.48259999999999997</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>0.26688000000000001</v>
+      </c>
+      <c r="AA5" s="41">
+        <v>0.57540000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B6" s="17" t="s">
         <v>17</v>
       </c>
@@ -1055,8 +1278,15 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="32">
+      <c r="O6" t="str">
+        <f t="shared" si="0"/>
+        <v>gen_distance</v>
+      </c>
+      <c r="P6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BG</v>
+      </c>
+      <c r="Q6" s="25">
         <v>5</v>
       </c>
       <c r="R6" s="16">
@@ -1065,12 +1295,32 @@
       <c r="S6" s="16">
         <v>0.30937999999999999</v>
       </c>
-      <c r="T6" s="33">
+      <c r="T6" s="26">
         <v>0.62863999999999998</v>
       </c>
       <c r="U6" s="9"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="V6" t="str">
+        <f t="shared" si="2"/>
+        <v>male_gendiv</v>
+      </c>
+      <c r="W6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>BG</v>
+      </c>
+      <c r="X6" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0.40550999999999998</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0.29088999999999998</v>
+      </c>
+      <c r="AA6" s="41">
+        <v>0.60531999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
@@ -1090,8 +1340,15 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="32">
+      <c r="O7" t="str">
+        <f t="shared" si="0"/>
+        <v>female_age</v>
+      </c>
+      <c r="P7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BG</v>
+      </c>
+      <c r="Q7" s="25">
         <v>6</v>
       </c>
       <c r="R7" s="16">
@@ -1100,16 +1357,44 @@
       <c r="S7" s="16">
         <v>0.33416000000000001</v>
       </c>
-      <c r="T7" s="33">
+      <c r="T7" s="26">
         <v>0.65642</v>
       </c>
       <c r="U7" s="9"/>
-    </row>
-    <row r="8" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="V7" t="str">
+        <f t="shared" si="2"/>
+        <v>gen_distance</v>
+      </c>
+      <c r="W7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>BG</v>
+      </c>
+      <c r="X7" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0.39560000000000001</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0.30892999999999998</v>
+      </c>
+      <c r="AA7" s="41">
+        <v>0.62687999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="Q8" s="32">
+      <c r="O8" t="str">
+        <f t="shared" si="0"/>
+        <v>male_rank</v>
+      </c>
+      <c r="P8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>S</v>
+      </c>
+      <c r="Q8" s="25">
         <v>7</v>
       </c>
       <c r="R8" s="16">
@@ -1118,17 +1403,45 @@
       <c r="S8" s="16">
         <v>0.33690999999999999</v>
       </c>
-      <c r="T8" s="33">
+      <c r="T8" s="26">
         <v>0.65739999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="J9" s="37" t="s">
+      <c r="V8" t="str">
+        <f t="shared" si="2"/>
+        <v>female_age</v>
+      </c>
+      <c r="W8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>BG</v>
+      </c>
+      <c r="X8" s="5">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>0.36246</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>0.34251999999999999</v>
+      </c>
+      <c r="AA8" s="41">
+        <v>0.66315000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="J9" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="39"/>
-      <c r="Q9" s="32">
+      <c r="K9" s="31"/>
+      <c r="L9" s="32"/>
+      <c r="O9" t="str">
+        <f t="shared" si="0"/>
+        <v>female_rank</v>
+      </c>
+      <c r="P9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>S</v>
+      </c>
+      <c r="Q9" s="25">
         <v>8</v>
       </c>
       <c r="R9" s="16">
@@ -1137,11 +1450,31 @@
       <c r="S9" s="16">
         <v>0.34349000000000002</v>
       </c>
-      <c r="T9" s="33">
+      <c r="T9" s="26">
         <v>0.66307000000000005</v>
       </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="V9" t="str">
+        <f t="shared" si="2"/>
+        <v>male_rank</v>
+      </c>
+      <c r="W9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>S</v>
+      </c>
+      <c r="X9" s="5">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>0.35249000000000003</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>0.34444999999999998</v>
+      </c>
+      <c r="AA9" s="41">
+        <v>0.66378999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.45">
       <c r="J10" s="2"/>
       <c r="K10" s="21" t="s">
         <v>3</v>
@@ -1149,7 +1482,15 @@
       <c r="L10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="32">
+      <c r="O10" t="str">
+        <f t="shared" si="0"/>
+        <v>males_present</v>
+      </c>
+      <c r="P10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>S</v>
+      </c>
+      <c r="Q10" s="25">
         <v>9</v>
       </c>
       <c r="R10" s="16">
@@ -1158,11 +1499,31 @@
       <c r="S10" s="16">
         <v>0.35081000000000001</v>
       </c>
-      <c r="T10" s="33">
+      <c r="T10" s="26">
         <v>0.66859999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="V10" t="str">
+        <f t="shared" si="2"/>
+        <v>female_rank</v>
+      </c>
+      <c r="W10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>S</v>
+      </c>
+      <c r="X10" s="5">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>0.33861999999999998</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>0.34863</v>
+      </c>
+      <c r="AA10" s="41">
+        <v>0.66491</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.45">
       <c r="J11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1172,7 +1533,15 @@
       <c r="L11" s="8">
         <v>0.4</v>
       </c>
-      <c r="Q11" s="32">
+      <c r="O11" t="str">
+        <f t="shared" si="0"/>
+        <v>females_present</v>
+      </c>
+      <c r="P11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>S</v>
+      </c>
+      <c r="Q11" s="25">
         <v>10</v>
       </c>
       <c r="R11" s="16">
@@ -1181,11 +1550,31 @@
       <c r="S11" s="16">
         <v>0.35172999999999999</v>
       </c>
-      <c r="T11" s="33">
+      <c r="T11" s="26">
         <v>0.66786000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="V11" t="str">
+        <f t="shared" si="2"/>
+        <v>males_present</v>
+      </c>
+      <c r="W11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>S</v>
+      </c>
+      <c r="X11" s="13">
+        <v>9</v>
+      </c>
+      <c r="Y11" s="42">
+        <v>0.32445000000000002</v>
+      </c>
+      <c r="Z11" s="42">
+        <v>0.35510000000000003</v>
+      </c>
+      <c r="AA11" s="43">
+        <v>0.67081000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="J12" s="10" t="s">
         <v>15</v>
       </c>
@@ -1195,7 +1584,15 @@
       <c r="L12" s="12">
         <v>0.66</v>
       </c>
-      <c r="Q12" s="32">
+      <c r="O12" t="str">
+        <f t="shared" si="0"/>
+        <v>male_rank_transform</v>
+      </c>
+      <c r="P12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="Q12" s="25">
         <v>11</v>
       </c>
       <c r="R12" s="16">
@@ -1204,33 +1601,41 @@
       <c r="S12" s="16">
         <v>0.35558000000000001</v>
       </c>
-      <c r="T12" s="33">
+      <c r="T12" s="26">
         <v>0.66979</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="Q13" s="34">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="O13" t="str">
+        <f t="shared" si="0"/>
+        <v>assort_index</v>
+      </c>
+      <c r="P13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="Q13" s="27">
         <v>14</v>
       </c>
-      <c r="R13" s="35">
+      <c r="R13" s="28">
         <v>0.30870999999999998</v>
       </c>
-      <c r="S13" s="35">
+      <c r="S13" s="28">
         <v>0.35749999999999998</v>
       </c>
-      <c r="T13" s="36">
+      <c r="T13" s="29">
         <v>0.67110999999999998</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="J16" s="37" t="s">
+    <row r="15" spans="2:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="J16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="38"/>
-      <c r="L16" s="39"/>
-    </row>
-    <row r="17" spans="10:23" x14ac:dyDescent="0.45">
+      <c r="K16" s="31"/>
+      <c r="L16" s="32"/>
+    </row>
+    <row r="17" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J17" s="2"/>
       <c r="K17" s="21" t="s">
         <v>3</v>
@@ -1238,14 +1643,14 @@
       <c r="L17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q17" s="26" t="s">
+      <c r="Q17" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="28"/>
-    </row>
-    <row r="18" spans="10:23" x14ac:dyDescent="0.45">
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="35"/>
+    </row>
+    <row r="18" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1255,6 +1660,12 @@
       <c r="L18" s="8">
         <v>0.36</v>
       </c>
+      <c r="O18" t="s">
+        <v>47</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="Q18" s="17" t="s">
         <v>5</v>
       </c>
@@ -1268,7 +1679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="10:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="10:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="J19" s="10" t="s">
         <v>15</v>
       </c>
@@ -1278,6 +1689,14 @@
       <c r="L19" s="12">
         <v>0.66</v>
       </c>
+      <c r="O19" t="str">
+        <f>VLOOKUP(Q19,$A$51:$C$66,2,0)</f>
+        <v>female_hybridscore</v>
+      </c>
+      <c r="P19" s="1" t="str">
+        <f>VLOOKUP(Q19,$A$51:$C$66,3,0)</f>
+        <v>BG</v>
+      </c>
       <c r="Q19" s="17">
         <v>1</v>
       </c>
@@ -1291,9 +1710,15 @@
         <v>0.58753</v>
       </c>
     </row>
-    <row r="20" spans="10:23" x14ac:dyDescent="0.45">
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
+    <row r="20" spans="10:25" x14ac:dyDescent="0.45">
+      <c r="O20" t="str">
+        <f t="shared" ref="O20:O28" si="4">VLOOKUP(Q20,$A$51:$C$66,2,0)</f>
+        <v>male_hybridscore</v>
+      </c>
+      <c r="P20" s="1" t="str">
+        <f t="shared" ref="P20:P28" si="5">VLOOKUP(Q20,$A$51:$C$66,3,0)</f>
+        <v>BG</v>
+      </c>
       <c r="Q20" s="17">
         <v>2</v>
       </c>
@@ -1309,10 +1734,18 @@
       <c r="U20" s="16"/>
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
-    </row>
-    <row r="21" spans="10:23" x14ac:dyDescent="0.45">
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+    </row>
+    <row r="21" spans="10:25" x14ac:dyDescent="0.45">
+      <c r="O21" t="str">
+        <f t="shared" si="4"/>
+        <v>female_gendiv</v>
+      </c>
+      <c r="P21" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>BG</v>
+      </c>
       <c r="Q21" s="17">
         <v>3</v>
       </c>
@@ -1328,10 +1761,18 @@
       <c r="U21" s="16"/>
       <c r="V21" s="16"/>
       <c r="W21" s="16"/>
-    </row>
-    <row r="22" spans="10:23" x14ac:dyDescent="0.45">
-      <c r="O22" s="16"/>
-      <c r="P22" s="15"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+    </row>
+    <row r="22" spans="10:25" x14ac:dyDescent="0.45">
+      <c r="O22" t="str">
+        <f t="shared" si="4"/>
+        <v>male_gendiv</v>
+      </c>
+      <c r="P22" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>BG</v>
+      </c>
       <c r="Q22" s="17">
         <v>4</v>
       </c>
@@ -1345,12 +1786,20 @@
         <v>0.59955999999999998</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-    </row>
-    <row r="23" spans="10:23" x14ac:dyDescent="0.45">
-      <c r="O23" s="16"/>
-      <c r="P23" s="1"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+    </row>
+    <row r="23" spans="10:25" x14ac:dyDescent="0.45">
+      <c r="O23" t="str">
+        <f t="shared" si="4"/>
+        <v>gen_distance</v>
+      </c>
+      <c r="P23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>BG</v>
+      </c>
       <c r="Q23" s="17">
         <v>5</v>
       </c>
@@ -1364,12 +1813,20 @@
         <v>0.60407999999999995</v>
       </c>
       <c r="U23" s="1"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-    </row>
-    <row r="24" spans="10:23" x14ac:dyDescent="0.45">
-      <c r="O24" s="16"/>
-      <c r="P24" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+    </row>
+    <row r="24" spans="10:25" x14ac:dyDescent="0.45">
+      <c r="O24" t="str">
+        <f t="shared" si="4"/>
+        <v>female_age</v>
+      </c>
+      <c r="P24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>BG</v>
+      </c>
       <c r="Q24" s="17">
         <v>6</v>
       </c>
@@ -1383,12 +1840,20 @@
         <v>0.63558000000000003</v>
       </c>
       <c r="U24" s="9"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-    </row>
-    <row r="25" spans="10:23" x14ac:dyDescent="0.45">
-      <c r="O25" s="16"/>
-      <c r="P25" s="1"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+    </row>
+    <row r="25" spans="10:25" x14ac:dyDescent="0.45">
+      <c r="O25" t="str">
+        <f t="shared" si="4"/>
+        <v>male_rank</v>
+      </c>
+      <c r="P25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
       <c r="Q25" s="17">
         <v>7</v>
       </c>
@@ -1402,12 +1867,20 @@
         <v>0.63819999999999999</v>
       </c>
       <c r="U25" s="9"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-    </row>
-    <row r="26" spans="10:23" x14ac:dyDescent="0.45">
-      <c r="O26" s="16"/>
-      <c r="P26" s="1"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+    </row>
+    <row r="26" spans="10:25" x14ac:dyDescent="0.45">
+      <c r="O26" t="str">
+        <f t="shared" si="4"/>
+        <v>female_rank</v>
+      </c>
+      <c r="P26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
       <c r="Q26" s="17">
         <v>8</v>
       </c>
@@ -1421,12 +1894,20 @@
         <v>0.63593999999999995</v>
       </c>
       <c r="U26" s="9"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-    </row>
-    <row r="27" spans="10:23" x14ac:dyDescent="0.45">
-      <c r="O27" s="16"/>
-      <c r="P27" s="1"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+    </row>
+    <row r="27" spans="10:25" x14ac:dyDescent="0.45">
+      <c r="O27" t="str">
+        <f t="shared" si="4"/>
+        <v>females_present</v>
+      </c>
+      <c r="P27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
       <c r="Q27" s="17">
         <v>10</v>
       </c>
@@ -1440,12 +1921,20 @@
         <v>0.63722999999999996</v>
       </c>
       <c r="U27" s="9"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-    </row>
-    <row r="28" spans="10:23" x14ac:dyDescent="0.45">
-      <c r="O28" s="16"/>
-      <c r="P28" s="1"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+    </row>
+    <row r="28" spans="10:25" x14ac:dyDescent="0.45">
+      <c r="O28" t="str">
+        <f t="shared" si="4"/>
+        <v>rank_interact</v>
+      </c>
+      <c r="P28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>D</v>
+      </c>
       <c r="Q28" s="13">
         <v>13</v>
       </c>
@@ -1459,39 +1948,51 @@
         <v>0.63841999999999999</v>
       </c>
       <c r="U28" s="9"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-    </row>
-    <row r="29" spans="10:23" x14ac:dyDescent="0.45">
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+    </row>
+    <row r="29" spans="10:25" x14ac:dyDescent="0.45">
       <c r="O29" s="16"/>
       <c r="P29" s="1"/>
       <c r="U29" s="9"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-    </row>
-    <row r="30" spans="10:23" x14ac:dyDescent="0.45">
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+    </row>
+    <row r="30" spans="10:25" x14ac:dyDescent="0.45">
       <c r="O30" s="16"/>
       <c r="P30" s="1"/>
       <c r="U30" s="9"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-    </row>
-    <row r="31" spans="10:23" x14ac:dyDescent="0.45">
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+    </row>
+    <row r="31" spans="10:25" x14ac:dyDescent="0.45">
       <c r="O31" s="16"/>
       <c r="P31" s="14"/>
-      <c r="Q31" s="26" t="s">
+      <c r="Q31" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="28"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="35"/>
       <c r="U31" s="9"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-    </row>
-    <row r="32" spans="10:23" x14ac:dyDescent="0.45">
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+    </row>
+    <row r="32" spans="10:25" x14ac:dyDescent="0.45">
+      <c r="O32" t="s">
+        <v>47</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="Q32" s="17" t="s">
         <v>5</v>
       </c>
@@ -1507,10 +2008,18 @@
       <c r="U32" s="16"/>
       <c r="V32" s="16"/>
       <c r="W32" s="16"/>
-    </row>
-    <row r="33" spans="15:23" x14ac:dyDescent="0.45">
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="O33" t="str">
+        <f>VLOOKUP(Q33,$A$51:$C$66,2,0)</f>
+        <v>female_hybridscore</v>
+      </c>
+      <c r="P33" s="1" t="str">
+        <f>VLOOKUP(Q33,$A$51:$C$66,3,0)</f>
+        <v>BG</v>
+      </c>
       <c r="Q33" s="17">
         <v>1</v>
       </c>
@@ -1526,10 +2035,18 @@
       <c r="U33" s="16"/>
       <c r="V33" s="16"/>
       <c r="W33" s="16"/>
-    </row>
-    <row r="34" spans="15:23" x14ac:dyDescent="0.45">
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="O34" t="str">
+        <f t="shared" ref="O34:O40" si="6">VLOOKUP(Q34,$A$51:$C$66,2,0)</f>
+        <v>female_gendiv</v>
+      </c>
+      <c r="P34" s="1" t="str">
+        <f t="shared" ref="P34:P40" si="7">VLOOKUP(Q34,$A$51:$C$66,3,0)</f>
+        <v>BG</v>
+      </c>
       <c r="Q34" s="17">
         <v>3</v>
       </c>
@@ -1545,8 +2062,18 @@
       <c r="U34" s="16"/>
       <c r="V34" s="16"/>
       <c r="W34" s="16"/>
-    </row>
-    <row r="35" spans="15:23" x14ac:dyDescent="0.45">
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="O35" t="str">
+        <f t="shared" si="6"/>
+        <v>male_gendiv</v>
+      </c>
+      <c r="P35" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>BG</v>
+      </c>
       <c r="Q35" s="17">
         <v>4</v>
       </c>
@@ -1560,7 +2087,15 @@
         <v>0.58901999999999999</v>
       </c>
     </row>
-    <row r="36" spans="15:23" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="O36" t="str">
+        <f t="shared" si="6"/>
+        <v>female_age</v>
+      </c>
+      <c r="P36" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>BG</v>
+      </c>
       <c r="Q36" s="17">
         <v>6</v>
       </c>
@@ -1574,7 +2109,15 @@
         <v>0.63151999999999997</v>
       </c>
     </row>
-    <row r="37" spans="15:23" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="O37" t="str">
+        <f t="shared" si="6"/>
+        <v>male_rank</v>
+      </c>
+      <c r="P37" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
       <c r="Q37" s="17">
         <v>7</v>
       </c>
@@ -1588,7 +2131,15 @@
         <v>0.63061</v>
       </c>
     </row>
-    <row r="38" spans="15:23" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="O38" t="str">
+        <f t="shared" si="6"/>
+        <v>males_present</v>
+      </c>
+      <c r="P38" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
       <c r="Q38" s="17">
         <v>9</v>
       </c>
@@ -1602,7 +2153,15 @@
         <v>0.63383999999999996</v>
       </c>
     </row>
-    <row r="39" spans="15:23" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="O39" t="str">
+        <f t="shared" si="6"/>
+        <v>females_present</v>
+      </c>
+      <c r="P39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
       <c r="Q39" s="5">
         <v>10</v>
       </c>
@@ -1616,7 +2175,15 @@
         <v>0.63724999999999998</v>
       </c>
     </row>
-    <row r="40" spans="15:23" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="O40" t="str">
+        <f t="shared" si="6"/>
+        <v>male_rank_transform</v>
+      </c>
+      <c r="P40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>D</v>
+      </c>
       <c r="Q40" s="22">
         <v>11</v>
       </c>
@@ -1630,8 +2197,206 @@
         <v>0.63792000000000004</v>
       </c>
     </row>
+    <row r="45" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A46" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A47" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A48" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="7">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="7">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="7">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="7">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="7">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="7">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="7">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="7">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="7">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="7">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="7">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="7">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="7">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="7">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="7">
+        <v>15</v>
+      </c>
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="7">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="X1:AA1"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="Q17:T17"/>
     <mergeCell ref="Q31:T31"/>

--- a/doc/report/metrics_tables.xlsx
+++ b/doc/report/metrics_tables.xlsx
@@ -525,6 +525,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -553,24 +571,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -957,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -986,36 +986,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
       <c r="P1" s="15"/>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="35"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="41"/>
       <c r="U1" s="15"/>
       <c r="V1" s="15"/>
       <c r="W1" s="15"/>
-      <c r="X1" s="40" t="s">
+      <c r="X1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="7"/>
       <c r="J2" s="2"/>
       <c r="K2" s="3" t="s">
@@ -1118,13 +1118,13 @@
       <c r="X3" s="17">
         <v>1</v>
       </c>
-      <c r="Y3" s="44">
+      <c r="Y3" s="33">
         <v>0.48592000000000002</v>
       </c>
-      <c r="Z3" s="44">
+      <c r="Z3" s="33">
         <v>0.25185000000000002</v>
       </c>
-      <c r="AA3" s="45">
+      <c r="AA3" s="34">
         <v>0.55393000000000003</v>
       </c>
     </row>
@@ -1133,16 +1133,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="14">
-        <v>0.25900000000000001</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="D4" s="14">
-        <v>0.318</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="E4" s="14">
-        <v>0.46300000000000002</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="F4" s="18">
-        <v>0.36499999999999999</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="G4" s="7"/>
       <c r="J4" s="10" t="s">
@@ -1192,7 +1192,7 @@
       <c r="Z4" s="9">
         <v>0.24945999999999999</v>
       </c>
-      <c r="AA4" s="41">
+      <c r="AA4" s="30">
         <v>0.55181999999999998</v>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       <c r="Z5" s="9">
         <v>0.26688000000000001</v>
       </c>
-      <c r="AA5" s="41">
+      <c r="AA5" s="30">
         <v>0.57540000000000002</v>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       <c r="Z6" s="9">
         <v>0.29088999999999998</v>
       </c>
-      <c r="AA6" s="41">
+      <c r="AA6" s="30">
         <v>0.60531999999999997</v>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       <c r="Z7" s="9">
         <v>0.30892999999999998</v>
       </c>
-      <c r="AA7" s="41">
+      <c r="AA7" s="30">
         <v>0.62687999999999999</v>
       </c>
     </row>
@@ -1423,16 +1423,16 @@
       <c r="Z8" s="9">
         <v>0.34251999999999999</v>
       </c>
-      <c r="AA8" s="41">
+      <c r="AA8" s="30">
         <v>0.66315000000000002</v>
       </c>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
       <c r="O9" t="str">
         <f t="shared" si="0"/>
         <v>female_rank</v>
@@ -1470,7 +1470,7 @@
       <c r="Z9" s="9">
         <v>0.34444999999999998</v>
       </c>
-      <c r="AA9" s="41">
+      <c r="AA9" s="30">
         <v>0.66378999999999999</v>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       <c r="Z10" s="9">
         <v>0.34863</v>
       </c>
-      <c r="AA10" s="41">
+      <c r="AA10" s="30">
         <v>0.66491</v>
       </c>
     </row>
@@ -1564,13 +1564,13 @@
       <c r="X11" s="13">
         <v>9</v>
       </c>
-      <c r="Y11" s="42">
+      <c r="Y11" s="31">
         <v>0.32445000000000002</v>
       </c>
-      <c r="Z11" s="42">
+      <c r="Z11" s="31">
         <v>0.35510000000000003</v>
       </c>
-      <c r="AA11" s="43">
+      <c r="AA11" s="32">
         <v>0.67081000000000002</v>
       </c>
     </row>
@@ -1629,11 +1629,11 @@
     </row>
     <row r="15" spans="2:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="16" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="J16" s="30" t="s">
+      <c r="J16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="31"/>
-      <c r="L16" s="32"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="38"/>
     </row>
     <row r="17" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J17" s="2"/>
@@ -1643,12 +1643,12 @@
       <c r="L17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q17" s="33" t="s">
+      <c r="Q17" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="35"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="41"/>
     </row>
     <row r="18" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J18" s="2" t="s">
@@ -1974,12 +1974,12 @@
     <row r="31" spans="10:25" x14ac:dyDescent="0.45">
       <c r="O31" s="16"/>
       <c r="P31" s="14"/>
-      <c r="Q31" s="33" t="s">
+      <c r="Q31" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="35"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="41"/>
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
@@ -2396,14 +2396,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="Q1:T1"/>
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="Q17:T17"/>
     <mergeCell ref="Q31:T31"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="Q1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/doc/report/metrics_tables.xlsx
+++ b/doc/report/metrics_tables.xlsx
@@ -169,9 +169,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -450,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -525,52 +524,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -958,7 +942,7 @@
   <dimension ref="A1:AA66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -986,36 +970,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
       <c r="P1" s="15"/>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="41"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
       <c r="U1" s="15"/>
       <c r="V1" s="15"/>
       <c r="W1" s="15"/>
-      <c r="X1" s="35" t="s">
+      <c r="X1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="45"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="7"/>
       <c r="J2" s="2"/>
       <c r="K2" s="3" t="s">
@@ -1115,17 +1099,17 @@
         <f>VLOOKUP(X3,$A$51:$C$66,3,0)</f>
         <v>BG</v>
       </c>
-      <c r="X3" s="17">
+      <c r="X3">
         <v>1</v>
       </c>
-      <c r="Y3" s="33">
-        <v>0.48592000000000002</v>
-      </c>
-      <c r="Z3" s="33">
-        <v>0.25185000000000002</v>
-      </c>
-      <c r="AA3" s="34">
-        <v>0.55393000000000003</v>
+      <c r="Y3">
+        <v>0.49574000000000001</v>
+      </c>
+      <c r="Z3">
+        <v>0.25052999999999997</v>
+      </c>
+      <c r="AA3">
+        <v>0.55188999999999999</v>
       </c>
     </row>
     <row r="4" spans="2:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1133,16 +1117,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="14">
-        <v>0.24199999999999999</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="D4" s="14">
-        <v>0.36199999999999999</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="E4" s="14">
-        <v>0.49099999999999999</v>
+        <v>0.438</v>
       </c>
       <c r="F4" s="18">
-        <v>0.35699999999999998</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="G4" s="7"/>
       <c r="J4" s="10" t="s">
@@ -1183,17 +1167,17 @@
         <f>VLOOKUP(X4,$A$51:$C$66,3,0)</f>
         <v>BG</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4">
         <v>2</v>
       </c>
-      <c r="Y4" s="9">
-        <v>0.45762000000000003</v>
-      </c>
-      <c r="Z4" s="9">
-        <v>0.24945999999999999</v>
-      </c>
-      <c r="AA4" s="30">
-        <v>0.55181999999999998</v>
+      <c r="Y4">
+        <v>0.47696</v>
+      </c>
+      <c r="Z4">
+        <v>0.25385999999999997</v>
+      </c>
+      <c r="AA4">
+        <v>0.55718000000000001</v>
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.45">
@@ -1245,17 +1229,17 @@
         <f t="shared" ref="W5:W11" si="3">VLOOKUP(X5,$A$51:$C$66,3,0)</f>
         <v>BG</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5">
         <v>3</v>
       </c>
-      <c r="Y5" s="9">
-        <v>0.48259999999999997</v>
-      </c>
-      <c r="Z5" s="9">
-        <v>0.26688000000000001</v>
-      </c>
-      <c r="AA5" s="30">
-        <v>0.57540000000000002</v>
+      <c r="Y5">
+        <v>0.45582</v>
+      </c>
+      <c r="Z5">
+        <v>0.27117999999999998</v>
+      </c>
+      <c r="AA5">
+        <v>0.58126999999999995</v>
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.45">
@@ -1307,17 +1291,17 @@
         <f t="shared" si="3"/>
         <v>BG</v>
       </c>
-      <c r="X6" s="5">
+      <c r="X6" s="16">
         <v>4</v>
       </c>
-      <c r="Y6" s="9">
-        <v>0.40550999999999998</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>0.29088999999999998</v>
-      </c>
-      <c r="AA6" s="30">
-        <v>0.60531999999999997</v>
+      <c r="Y6">
+        <v>0.41964000000000001</v>
+      </c>
+      <c r="Z6">
+        <v>0.29260999999999998</v>
+      </c>
+      <c r="AA6">
+        <v>0.60768999999999995</v>
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.45">
@@ -1369,17 +1353,17 @@
         <f t="shared" si="3"/>
         <v>BG</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="16">
         <v>5</v>
       </c>
-      <c r="Y7" s="9">
-        <v>0.39560000000000001</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>0.30892999999999998</v>
-      </c>
-      <c r="AA7" s="30">
-        <v>0.62687999999999999</v>
+      <c r="Y7">
+        <v>0.39454</v>
+      </c>
+      <c r="Z7">
+        <v>0.30763000000000001</v>
+      </c>
+      <c r="AA7">
+        <v>0.62543000000000004</v>
       </c>
     </row>
     <row r="8" spans="2:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1414,25 +1398,25 @@
         <f t="shared" si="3"/>
         <v>BG</v>
       </c>
-      <c r="X8" s="5">
+      <c r="X8" s="16">
         <v>6</v>
       </c>
-      <c r="Y8" s="9">
-        <v>0.36246</v>
-      </c>
-      <c r="Z8" s="9">
-        <v>0.34251999999999999</v>
-      </c>
-      <c r="AA8" s="30">
-        <v>0.66315000000000002</v>
+      <c r="Y8">
+        <v>0.35171999999999998</v>
+      </c>
+      <c r="Z8">
+        <v>0.34510000000000002</v>
+      </c>
+      <c r="AA8">
+        <v>0.66693000000000002</v>
       </c>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
       <c r="O9" t="str">
         <f t="shared" si="0"/>
         <v>female_rank</v>
@@ -1461,17 +1445,17 @@
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="X9" s="5">
+      <c r="X9" s="16">
         <v>7</v>
       </c>
-      <c r="Y9" s="9">
-        <v>0.35249000000000003</v>
-      </c>
-      <c r="Z9" s="9">
-        <v>0.34444999999999998</v>
-      </c>
-      <c r="AA9" s="30">
-        <v>0.66378999999999999</v>
+      <c r="Y9">
+        <v>0.35414000000000001</v>
+      </c>
+      <c r="Z9">
+        <v>0.34855000000000003</v>
+      </c>
+      <c r="AA9">
+        <v>0.66991000000000001</v>
       </c>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.45">
@@ -1510,17 +1494,17 @@
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="X10" s="5">
+      <c r="X10" s="16">
         <v>8</v>
       </c>
-      <c r="Y10" s="9">
-        <v>0.33861999999999998</v>
-      </c>
-      <c r="Z10" s="9">
-        <v>0.34863</v>
-      </c>
-      <c r="AA10" s="30">
-        <v>0.66491</v>
+      <c r="Y10">
+        <v>0.32393</v>
+      </c>
+      <c r="Z10">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="AA10">
+        <v>0.67459000000000002</v>
       </c>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.45">
@@ -1553,26 +1537,12 @@
       <c r="T11" s="26">
         <v>0.66786000000000001</v>
       </c>
-      <c r="V11" t="str">
-        <f t="shared" si="2"/>
-        <v>males_present</v>
-      </c>
-      <c r="W11" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="X11" s="13">
-        <v>9</v>
-      </c>
-      <c r="Y11" s="31">
-        <v>0.32445000000000002</v>
-      </c>
-      <c r="Z11" s="31">
-        <v>0.35510000000000003</v>
-      </c>
-      <c r="AA11" s="32">
-        <v>0.67081000000000002</v>
-      </c>
+      <c r="V11" s="16"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
     </row>
     <row r="12" spans="2:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="J12" s="10" t="s">
@@ -1604,6 +1574,12 @@
       <c r="T12" s="26">
         <v>0.66979</v>
       </c>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.45">
       <c r="O13" t="str">
@@ -1629,11 +1605,11 @@
     </row>
     <row r="15" spans="2:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="16" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="38"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J17" s="2"/>
@@ -1643,12 +1619,12 @@
       <c r="L17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q17" s="39" t="s">
+      <c r="Q17" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="41"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="38"/>
     </row>
     <row r="18" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J18" s="2" t="s">
@@ -1974,12 +1950,12 @@
     <row r="31" spans="10:25" x14ac:dyDescent="0.45">
       <c r="O31" s="16"/>
       <c r="P31" s="14"/>
-      <c r="Q31" s="39" t="s">
+      <c r="Q31" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="41"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="38"/>
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
@@ -2396,14 +2372,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="J16:L16"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/doc/report/metrics_tables.xlsx
+++ b/doc/report/metrics_tables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
   <si>
     <t>Normalized Confusion Matrix for SVM</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Feature Name</t>
+  </si>
+  <si>
+    <t>Normalized Confusion Matrix for AdaBoosting for PageRank and HITS</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -527,6 +530,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -542,19 +560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -941,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -956,7 +962,7 @@
     <col min="7" max="9" width="8.53125"/>
     <col min="10" max="10" width="15.6640625"/>
     <col min="11" max="11" width="15.265625"/>
-    <col min="12" max="12" width="19.59765625"/>
+    <col min="12" max="12" width="27.33203125" customWidth="1"/>
     <col min="13" max="15" width="8.53125"/>
     <col min="16" max="16" width="14.33203125" customWidth="1"/>
     <col min="17" max="17" width="9.06640625" customWidth="1"/>
@@ -970,36 +976,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
       <c r="P1" s="15"/>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="33"/>
       <c r="U1" s="15"/>
       <c r="V1" s="15"/>
       <c r="W1" s="15"/>
-      <c r="X1" s="39" t="s">
+      <c r="X1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="7"/>
       <c r="J2" s="2"/>
       <c r="K2" s="3" t="s">
@@ -1222,11 +1228,11 @@
       </c>
       <c r="U5" s="9"/>
       <c r="V5" t="str">
-        <f t="shared" ref="V5:V11" si="2">VLOOKUP(X5,$A$51:$C$66,2,0)</f>
+        <f t="shared" ref="V5:V10" si="2">VLOOKUP(X5,$A$51:$C$66,2,0)</f>
         <v>female_gendiv</v>
       </c>
       <c r="W5" s="1" t="str">
-        <f t="shared" ref="W5:W11" si="3">VLOOKUP(X5,$A$51:$C$66,3,0)</f>
+        <f t="shared" ref="W5:W10" si="3">VLOOKUP(X5,$A$51:$C$66,3,0)</f>
         <v>BG</v>
       </c>
       <c r="X5">
@@ -1412,11 +1418,11 @@
       </c>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="40"/>
       <c r="O9" t="str">
         <f t="shared" si="0"/>
         <v>female_rank</v>
@@ -1605,11 +1611,11 @@
     </row>
     <row r="15" spans="2:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="16" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="34"/>
-      <c r="L16" s="35"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="40"/>
     </row>
     <row r="17" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J17" s="2"/>
@@ -1619,12 +1625,12 @@
       <c r="L17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q17" s="36" t="s">
+      <c r="Q17" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="38"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="33"/>
     </row>
     <row r="18" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J18" s="2" t="s">
@@ -1713,7 +1719,7 @@
       <c r="X20" s="16"/>
       <c r="Y20" s="16"/>
     </row>
-    <row r="21" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="21" spans="10:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="O21" t="str">
         <f t="shared" si="4"/>
         <v>female_gendiv</v>
@@ -1741,6 +1747,11 @@
       <c r="Y21" s="16"/>
     </row>
     <row r="22" spans="10:25" x14ac:dyDescent="0.45">
+      <c r="J22" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="39"/>
+      <c r="L22" s="40"/>
       <c r="O22" t="str">
         <f t="shared" si="4"/>
         <v>male_gendiv</v>
@@ -1768,6 +1779,13 @@
       <c r="Y22" s="16"/>
     </row>
     <row r="23" spans="10:25" x14ac:dyDescent="0.45">
+      <c r="J23" s="2"/>
+      <c r="K23" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="O23" t="str">
         <f t="shared" si="4"/>
         <v>gen_distance</v>
@@ -1795,6 +1813,15 @@
       <c r="Y23" s="16"/>
     </row>
     <row r="24" spans="10:25" x14ac:dyDescent="0.45">
+      <c r="J24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0.46</v>
+      </c>
       <c r="O24" t="str">
         <f t="shared" si="4"/>
         <v>female_age</v>
@@ -1821,7 +1848,16 @@
       <c r="X24" s="16"/>
       <c r="Y24" s="16"/>
     </row>
-    <row r="25" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="25" spans="10:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0.65</v>
+      </c>
       <c r="O25" t="str">
         <f t="shared" si="4"/>
         <v>male_rank</v>
@@ -1950,12 +1986,12 @@
     <row r="31" spans="10:25" x14ac:dyDescent="0.45">
       <c r="O31" s="16"/>
       <c r="P31" s="14"/>
-      <c r="Q31" s="36" t="s">
+      <c r="Q31" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="38"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="33"/>
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
@@ -2371,15 +2407,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J22:L22"/>
     <mergeCell ref="Q17:T17"/>
     <mergeCell ref="Q31:T31"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="J16:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
